--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -551,7 +551,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,74 @@
   </si>
   <si>
     <t>Fábio Coentrao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brad Jones</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liverpool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simon Mignolet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glen Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>England</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>José Enrique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kolo Toure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dejan Lovren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mamadou Sakho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alberto Moreno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javi Manquillo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martin Škrtel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jon Flanagan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote dIvoire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,18 +616,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -1066,6 +1136,259 @@
       </c>
       <c r="G22" s="2">
         <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>25</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="2">
+        <v>17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>22</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="2">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="2">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,70 @@
   </si>
   <si>
     <t>Cote dIvoire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steven Gerrard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coutinho</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan Henderson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adam Lallana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emre Can</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joe Allen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raheem Sterling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lazar Marković</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rickie Lambert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Sturridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fabio Borini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mario Balotelli</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1389,6 +1453,328 @@
       </c>
       <c r="G33" s="2">
         <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="2">
+        <v>34</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="2">
+        <v>8</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="2">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2">
+        <v>27</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2">
+        <v>21</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2">
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="2">
+        <v>24</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="2">
+        <v>24</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <v>30</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="2">
+        <v>31</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="2">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="2">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>25</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2">
+        <v>15</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="2">
+        <v>29</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="2">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
   <si>
     <t>Position</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,198 @@
   </si>
   <si>
     <t>Mario Balotelli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc-Andre ter Stegen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcelona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claudio Bravo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martin Montoya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gerard Pique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javier Mascherano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marc Bartra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Douglas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordi Alba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adriano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daniel Alves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thomas Vermaelen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeremy Mathieu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergio Busquets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xavi Hernandez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andres Iniesta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rafinha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sergi Roberto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pedro Rodríguez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luis Suarez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neymar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Munir El Haddadi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sandro Ramirez</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ezequiel Lavezzi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jean-Christophe Bahebeck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zlatan Ibrahimovic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edinson Cavani</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Javier Pastore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adrien Rabiot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marco Verratti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clement Chantome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaise Matuidi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thiago Motta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yohan Cabaye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David Luiz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory van der Wiel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lucas Digne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maxwell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquinhos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salvatore Sirigu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thiago Silva</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivan Rakitic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1775,6 +1967,995 @@
       </c>
       <c r="G47" s="2">
         <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="2">
+        <v>22</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="2">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>13</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="2">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="2">
+        <v>15</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
+        <v>24</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="2">
+        <v>16</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
+        <v>25</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="2">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>30</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="2">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
+        <v>31</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="2">
+        <v>22</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
+        <v>29</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="2">
+        <v>23</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
+        <v>31</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="2">
+        <v>24</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="2">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2">
+        <v>34</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2">
+        <v>30</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="2">
+        <v>8</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="2">
+        <v>21</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2">
+        <v>12</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="2">
+        <v>20</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2">
+        <v>27</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="2">
+        <v>27</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="2">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>27</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="2">
+        <v>10</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="2">
+        <v>11</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="2">
+        <v>31</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="2">
+        <v>19</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>29</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="2">
+        <v>27</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="2">
+        <v>30</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G72" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <v>30</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G73" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
+        <v>20</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2">
+        <v>33</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="2">
+        <v>17</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2">
+        <v>21</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="2">
+        <v>21</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2">
+        <v>26</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="2">
+        <v>23</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2">
+        <v>27</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="2">
+        <v>32</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2">
+        <v>28</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2">
+        <v>22</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="2">
+        <v>7</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G80" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2">
+        <v>32</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2">
+        <v>27</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="2">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2">
+        <v>27</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2">
+        <v>20</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2">
+        <v>22</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="2">
+        <v>24</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="2">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2">
+        <v>25</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="2">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E86" s="2">
+        <v>27</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G86" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2">
+        <v>27</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" s="2">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2">
+        <v>33</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E88" s="2">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>21</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="2">
+        <v>29</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2">
+        <v>22</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" s="2">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -875,7 +875,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/datafiles/player.xlsx
+++ b/datafiles/player.xlsx
@@ -874,18 +874,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="5.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15">
@@ -1678,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>36</v>
